--- a/portfolio-optimization/data/raw/equities/us/ish_na_eq_etf.xlsx
+++ b/portfolio-optimization/data/raw/equities/us/ish_na_eq_etf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E0D42F-BE5F-4284-8681-278DF25421E6}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821E2D1D-B298-49EE-BDE0-FA362FE64A41}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -42,20 +42,44 @@
     <t>Name</t>
   </si>
   <si>
+    <t>FIGI</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>iShares North Amrican Equity Index Fund (UK)</t>
+  </si>
+  <si>
+    <t>BBG00G2F9YK2</t>
+  </si>
+  <si>
+    <t>BNAMEXI LN</t>
+  </si>
+  <si>
+    <t>The Trust;s ocjective is capital growth for investors by tracking closely the performance of the FTSE World Americas Index from November 1, 2005 by investing in companies in the INdex.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C817"/>
+  <dimension ref="A1:F818"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,186 +458,207 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
         <v>45813</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="B3">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>45812</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2.25</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>45811</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>45810</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>45807</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2.23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
         <v>45806</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>45805</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>2.23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
         <v>45804</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>2.21</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
         <v>45800</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
         <v>45799</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>45798</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
         <v>45797</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2.27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
         <v>45796</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2.23</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
         <v>45793</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>45792</v>
-      </c>
-      <c r="B16">
-        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>45791</v>
+        <v>45792</v>
       </c>
       <c r="B17">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>45790</v>
+        <v>45791</v>
       </c>
       <c r="B18">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>45789</v>
+        <v>45790</v>
       </c>
       <c r="B19">
-        <v>2.2599999999999998</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B20">
-        <v>2.17</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>45785</v>
+        <v>45786</v>
       </c>
       <c r="B21">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>45784</v>
+        <v>45785</v>
       </c>
       <c r="B22">
-        <v>2.15</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>45783</v>
+        <v>45784</v>
       </c>
       <c r="B23">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B24">
         <v>2.14</v>
@@ -620,31 +666,31 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>45778</v>
+        <v>45779</v>
       </c>
       <c r="B25">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>45777</v>
+        <v>45778</v>
       </c>
       <c r="B26">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>45776</v>
+        <v>45777</v>
       </c>
       <c r="B27">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>45775</v>
+        <v>45776</v>
       </c>
       <c r="B28">
         <v>2.1</v>
@@ -652,247 +698,247 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B29">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>45771</v>
+        <v>45772</v>
       </c>
       <c r="B30">
-        <v>2.0499999999999998</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="B31">
-        <v>2.0699999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>45769</v>
+        <v>45770</v>
       </c>
       <c r="B32">
-        <v>1.98</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B33">
-        <v>2.0299999999999998</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>45763</v>
+        <v>45764</v>
       </c>
       <c r="B34">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>45762</v>
+        <v>45763</v>
       </c>
       <c r="B35">
-        <v>2.0699999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="B36">
-        <v>2.09</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B37">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>45757</v>
+        <v>45758</v>
       </c>
       <c r="B38">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>45756</v>
+        <v>45757</v>
       </c>
       <c r="B39">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>45755</v>
+        <v>45756</v>
       </c>
       <c r="B40">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>45754</v>
+        <v>45755</v>
       </c>
       <c r="B41">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>45751</v>
+        <v>45754</v>
       </c>
       <c r="B42">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="B43">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>45749</v>
+        <v>45750</v>
       </c>
       <c r="B44">
-        <v>2.19</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="B45">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B46">
-        <v>2.16</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B47">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B48">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B49">
-        <v>2.27</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B50">
-        <v>2.2599999999999998</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B51">
-        <v>2.2400000000000002</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B52">
-        <v>2.21</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>45736</v>
+        <v>45737</v>
       </c>
       <c r="B53">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="B54">
-        <v>2.19</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>45734</v>
+        <v>45735</v>
       </c>
       <c r="B55">
-        <v>2.2200000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>45733</v>
+        <v>45734</v>
       </c>
       <c r="B56">
-        <v>2.2000000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B57">
-        <v>2.17</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B58">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>45728</v>
+        <v>45729</v>
       </c>
       <c r="B59">
         <v>2.19</v>
@@ -900,119 +946,119 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>45727</v>
+        <v>45728</v>
       </c>
       <c r="B60">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>45726</v>
+        <v>45727</v>
       </c>
       <c r="B61">
-        <v>2.23</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B62">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>45722</v>
+        <v>45723</v>
       </c>
       <c r="B63">
-        <v>2.27</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>45721</v>
+        <v>45722</v>
       </c>
       <c r="B64">
-        <v>2.2799999999999998</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>45720</v>
+        <v>45721</v>
       </c>
       <c r="B65">
-        <v>2.3199999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>45719</v>
+        <v>45720</v>
       </c>
       <c r="B66">
-        <v>2.37</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B67">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>45715</v>
+        <v>45716</v>
       </c>
       <c r="B68">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>45714</v>
+        <v>45715</v>
       </c>
       <c r="B69">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>45713</v>
+        <v>45714</v>
       </c>
       <c r="B70">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>45712</v>
+        <v>45713</v>
       </c>
       <c r="B71">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B72">
-        <v>2.46</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>45708</v>
+        <v>45709</v>
       </c>
       <c r="B73">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>45707</v>
+        <v>45708</v>
       </c>
       <c r="B74">
         <v>2.48</v>
@@ -1020,15 +1066,15 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B75">
-        <v>2.4700000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B76">
         <v>2.4700000000000002</v>
@@ -1036,7 +1082,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B77">
         <v>2.4700000000000002</v>
@@ -1044,7 +1090,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>45701</v>
+        <v>45702</v>
       </c>
       <c r="B78">
         <v>2.4700000000000002</v>
@@ -1052,143 +1098,143 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>45700</v>
+        <v>45701</v>
       </c>
       <c r="B79">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>45699</v>
+        <v>45700</v>
       </c>
       <c r="B80">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>45698</v>
+        <v>45699</v>
       </c>
       <c r="B81">
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B82">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>45694</v>
+        <v>45695</v>
       </c>
       <c r="B83">
-        <v>2.4900000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>45693</v>
+        <v>45694</v>
       </c>
       <c r="B84">
-        <v>2.4500000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>45692</v>
+        <v>45693</v>
       </c>
       <c r="B85">
-        <v>2.46</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B86">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B87">
-        <v>2.5</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>45687</v>
+        <v>45688</v>
       </c>
       <c r="B88">
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>45686</v>
+        <v>45687</v>
       </c>
       <c r="B89">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>45685</v>
+        <v>45686</v>
       </c>
       <c r="B90">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B91">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B92">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>45680</v>
+        <v>45681</v>
       </c>
       <c r="B93">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>45679</v>
+        <v>45680</v>
       </c>
       <c r="B94">
-        <v>2.48</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>45678</v>
+        <v>45679</v>
       </c>
       <c r="B95">
-        <v>2.4900000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>45677</v>
+        <v>45678</v>
       </c>
       <c r="B96">
         <v>2.4900000000000002</v>
@@ -1196,15 +1242,15 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B97">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>45673</v>
+        <v>45674</v>
       </c>
       <c r="B98">
         <v>2.4700000000000002</v>
@@ -1212,39 +1258,39 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>45672</v>
+        <v>45673</v>
       </c>
       <c r="B99">
-        <v>2.42</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>45671</v>
+        <v>45672</v>
       </c>
       <c r="B100">
-        <v>2.4300000000000002</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>45670</v>
+        <v>45671</v>
       </c>
       <c r="B101">
-        <v>2.42</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B102">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>45666</v>
+        <v>45667</v>
       </c>
       <c r="B103">
         <v>2.44</v>
@@ -1252,15 +1298,15 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>45665</v>
+        <v>45666</v>
       </c>
       <c r="B104">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>45664</v>
+        <v>45665</v>
       </c>
       <c r="B105">
         <v>2.42</v>
@@ -1268,7 +1314,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B106">
         <v>2.42</v>
@@ -1276,103 +1322,103 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B107">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>45659</v>
+        <v>45660</v>
       </c>
       <c r="B108">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>45657</v>
+        <v>45659</v>
       </c>
       <c r="B109">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>45656</v>
+        <v>45657</v>
       </c>
       <c r="B110">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="B111">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="B112">
-        <v>2.41</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>45649</v>
+        <v>45650</v>
       </c>
       <c r="B113">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B114">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B115">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B116">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>45643</v>
+        <v>45644</v>
       </c>
       <c r="B117">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="B118">
-        <v>2.4300000000000002</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="B119">
         <v>2.4300000000000002</v>
@@ -1380,63 +1426,63 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="B120">
-        <v>2.42</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="B121">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="B122">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="B123">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="B124">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="B125">
-        <v>2.4300000000000002</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="B126">
-        <v>2.42</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="B127">
         <v>2.42</v>
@@ -1444,23 +1490,23 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="B128">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="B129">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="B130">
         <v>2.4</v>
@@ -1468,47 +1514,47 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>45623</v>
+        <v>45624</v>
       </c>
       <c r="B131">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="B132">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="B133">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="B134">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="B135">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="B136">
         <v>2.37</v>
@@ -1516,47 +1562,47 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="B137">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>45614</v>
+        <v>45615</v>
       </c>
       <c r="B138">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B139">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="B140">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="B141">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="B142">
         <v>2.37</v>
@@ -1564,55 +1610,55 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>45607</v>
+        <v>45608</v>
       </c>
       <c r="B143">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="B144">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="B145">
-        <v>2.3199999999999998</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B146">
-        <v>2.31</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B147">
-        <v>2.2200000000000002</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>45600</v>
+        <v>45601</v>
       </c>
       <c r="B148">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="B149">
         <v>2.23</v>
@@ -1620,31 +1666,31 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>45596</v>
+        <v>45597</v>
       </c>
       <c r="B150">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>45595</v>
+        <v>45596</v>
       </c>
       <c r="B151">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>45594</v>
+        <v>45595</v>
       </c>
       <c r="B152">
-        <v>2.2599999999999998</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>45593</v>
+        <v>45594</v>
       </c>
       <c r="B153">
         <v>2.2599999999999998</v>
@@ -1652,7 +1698,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B154">
         <v>2.2599999999999998</v>
@@ -1660,7 +1706,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B155">
         <v>2.2599999999999998</v>
@@ -1668,23 +1714,23 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>45588</v>
+        <v>45589</v>
       </c>
       <c r="B156">
-        <v>2.2799999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>45587</v>
+        <v>45588</v>
       </c>
       <c r="B157">
-        <v>2.27</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>45586</v>
+        <v>45587</v>
       </c>
       <c r="B158">
         <v>2.27</v>
@@ -1692,55 +1738,55 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B159">
-        <v>2.2599999999999998</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="B160">
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>45581</v>
+        <v>45582</v>
       </c>
       <c r="B161">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>45580</v>
+        <v>45581</v>
       </c>
       <c r="B162">
-        <v>2.2599999999999998</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>45579</v>
+        <v>45580</v>
       </c>
       <c r="B163">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B164">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>45575</v>
+        <v>45576</v>
       </c>
       <c r="B165">
         <v>2.23</v>
@@ -1748,71 +1794,71 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="B166">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B167">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>45572</v>
+        <v>45573</v>
       </c>
       <c r="B168">
-        <v>2.2200000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B169">
-        <v>2.1800000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>45568</v>
+        <v>45569</v>
       </c>
       <c r="B170">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>45567</v>
+        <v>45568</v>
       </c>
       <c r="B171">
-        <v>2.17</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>45566</v>
+        <v>45567</v>
       </c>
       <c r="B172">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>45565</v>
+        <v>45566</v>
       </c>
       <c r="B173">
-        <v>2.16</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="B174">
         <v>2.16</v>
@@ -1820,23 +1866,23 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>45561</v>
+        <v>45562</v>
       </c>
       <c r="B175">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>45560</v>
+        <v>45561</v>
       </c>
       <c r="B176">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>45559</v>
+        <v>45560</v>
       </c>
       <c r="B177">
         <v>2.16</v>
@@ -1844,7 +1890,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>45558</v>
+        <v>45559</v>
       </c>
       <c r="B178">
         <v>2.16</v>
@@ -1852,31 +1898,31 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B179">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>45554</v>
+        <v>45555</v>
       </c>
       <c r="B180">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>45553</v>
+        <v>45554</v>
       </c>
       <c r="B181">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>45552</v>
+        <v>45553</v>
       </c>
       <c r="B182">
         <v>2.15</v>
@@ -1884,7 +1930,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>45551</v>
+        <v>45552</v>
       </c>
       <c r="B183">
         <v>2.15</v>
@@ -1892,7 +1938,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B184">
         <v>2.15</v>
@@ -1900,71 +1946,71 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B185">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="B186">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>45545</v>
+        <v>45546</v>
       </c>
       <c r="B187">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>45544</v>
+        <v>45545</v>
       </c>
       <c r="B188">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B189">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B190">
-        <v>2.11</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B191">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B192">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B193">
         <v>2.17</v>
@@ -1972,15 +2018,15 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="B194">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>45533</v>
+        <v>45534</v>
       </c>
       <c r="B195">
         <v>2.15</v>
@@ -1988,39 +2034,39 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>45532</v>
+        <v>45533</v>
       </c>
       <c r="B196">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>45531</v>
+        <v>45532</v>
       </c>
       <c r="B197">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>45527</v>
+        <v>45531</v>
       </c>
       <c r="B198">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>45526</v>
+        <v>45527</v>
       </c>
       <c r="B199">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>45525</v>
+        <v>45526</v>
       </c>
       <c r="B200">
         <v>2.17</v>
@@ -2028,23 +2074,23 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>45524</v>
+        <v>45525</v>
       </c>
       <c r="B201">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>45523</v>
+        <v>45524</v>
       </c>
       <c r="B202">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="B203">
         <v>2.17</v>
@@ -2052,31 +2098,31 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>45519</v>
+        <v>45520</v>
       </c>
       <c r="B204">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B205">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B206">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>45516</v>
+        <v>45517</v>
       </c>
       <c r="B207">
         <v>2.12</v>
@@ -2084,79 +2130,79 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B208">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>45512</v>
+        <v>45513</v>
       </c>
       <c r="B209">
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>45511</v>
+        <v>45512</v>
       </c>
       <c r="B210">
-        <v>2.1</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>45510</v>
+        <v>45511</v>
       </c>
       <c r="B211">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="B212">
-        <v>2.0499999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B213">
-        <v>2.14</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B214">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B215">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B216">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>45502</v>
+        <v>45503</v>
       </c>
       <c r="B217">
         <v>2.15</v>
@@ -2164,15 +2210,15 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B218">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="B219">
         <v>2.13</v>
@@ -2180,39 +2226,39 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="B220">
-        <v>2.16</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="B221">
-        <v>2.1800000000000002</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>45495</v>
+        <v>45496</v>
       </c>
       <c r="B222">
-        <v>2.16</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B223">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>45491</v>
+        <v>45492</v>
       </c>
       <c r="B224">
         <v>2.17</v>
@@ -2220,7 +2266,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>45490</v>
+        <v>45491</v>
       </c>
       <c r="B225">
         <v>2.17</v>
@@ -2228,47 +2274,47 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>45489</v>
+        <v>45490</v>
       </c>
       <c r="B226">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>45488</v>
+        <v>45489</v>
       </c>
       <c r="B227">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B228">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>45484</v>
+        <v>45485</v>
       </c>
       <c r="B229">
-        <v>2.2000000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>45483</v>
+        <v>45484</v>
       </c>
       <c r="B230">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>45482</v>
+        <v>45483</v>
       </c>
       <c r="B231">
         <v>2.19</v>
@@ -2276,7 +2322,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>45481</v>
+        <v>45482</v>
       </c>
       <c r="B232">
         <v>2.19</v>
@@ -2284,23 +2330,23 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B233">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>45477</v>
+        <v>45478</v>
       </c>
       <c r="B234">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>45476</v>
+        <v>45477</v>
       </c>
       <c r="B235">
         <v>2.19</v>
@@ -2308,31 +2354,31 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>45475</v>
+        <v>45476</v>
       </c>
       <c r="B236">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B237">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B238">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B239">
         <v>2.1800000000000002</v>
@@ -2340,7 +2386,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="B240">
         <v>2.1800000000000002</v>
@@ -2348,39 +2394,39 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>45468</v>
+        <v>45469</v>
       </c>
       <c r="B241">
-        <v>2.16</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>45467</v>
+        <v>45468</v>
       </c>
       <c r="B242">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>45464</v>
+        <v>45467</v>
       </c>
       <c r="B243">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="B244">
-        <v>2.17</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>45462</v>
+        <v>45463</v>
       </c>
       <c r="B245">
         <v>2.17</v>
@@ -2388,7 +2434,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>45461</v>
+        <v>45462</v>
       </c>
       <c r="B246">
         <v>2.17</v>
@@ -2396,23 +2442,23 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="B247">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B248">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B249">
         <v>2.14</v>
@@ -2420,15 +2466,15 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="B250">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>45454</v>
+        <v>45455</v>
       </c>
       <c r="B251">
         <v>2.12</v>
@@ -2436,7 +2482,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>45453</v>
+        <v>45454</v>
       </c>
       <c r="B252">
         <v>2.12</v>
@@ -2444,15 +2490,15 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="B253">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B254">
         <v>2.11</v>
@@ -2460,47 +2506,47 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B255">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B256">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>45446</v>
+        <v>45447</v>
       </c>
       <c r="B257">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>45443</v>
+        <v>45446</v>
       </c>
       <c r="B258">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B259">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B260">
         <v>2.09</v>
@@ -2508,39 +2554,39 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B261">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>45436</v>
+        <v>45440</v>
       </c>
       <c r="B262">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>45435</v>
+        <v>45436</v>
       </c>
       <c r="B263">
-        <v>2.12</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>45434</v>
+        <v>45435</v>
       </c>
       <c r="B264">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>45433</v>
+        <v>45434</v>
       </c>
       <c r="B265">
         <v>2.11</v>
@@ -2548,7 +2594,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>45432</v>
+        <v>45433</v>
       </c>
       <c r="B266">
         <v>2.11</v>
@@ -2556,15 +2602,15 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="B267">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>45428</v>
+        <v>45429</v>
       </c>
       <c r="B268">
         <v>2.12</v>
@@ -2572,15 +2618,15 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="B269">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>45426</v>
+        <v>45427</v>
       </c>
       <c r="B270">
         <v>2.1</v>
@@ -2588,7 +2634,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B271">
         <v>2.1</v>
@@ -2596,7 +2642,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>45422</v>
+        <v>45425</v>
       </c>
       <c r="B272">
         <v>2.1</v>
@@ -2604,7 +2650,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>45421</v>
+        <v>45422</v>
       </c>
       <c r="B273">
         <v>2.1</v>
@@ -2612,7 +2658,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>45420</v>
+        <v>45421</v>
       </c>
       <c r="B274">
         <v>2.1</v>
@@ -2620,23 +2666,23 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="B275">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="B276">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="B277">
         <v>2.04</v>
@@ -2644,7 +2690,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="B278">
         <v>2.04</v>
@@ -2652,15 +2698,15 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="B279">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B280">
         <v>2.06</v>
@@ -2668,39 +2714,39 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B281">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B282">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B283">
-        <v>2.06</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="B284">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B285">
         <v>2.0499999999999998</v>
@@ -2708,15 +2754,15 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B286">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>45400</v>
+        <v>45401</v>
       </c>
       <c r="B287">
         <v>2.0299999999999998</v>
@@ -2724,15 +2770,15 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>45399</v>
+        <v>45400</v>
       </c>
       <c r="B288">
-        <v>2.0499999999999998</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>45398</v>
+        <v>45399</v>
       </c>
       <c r="B289">
         <v>2.0499999999999998</v>
@@ -2740,39 +2786,39 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>45397</v>
+        <v>45398</v>
       </c>
       <c r="B290">
-        <v>2.0699999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B291">
-        <v>2.1</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B292">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>45392</v>
+        <v>45393</v>
       </c>
       <c r="B293">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B294">
         <v>2.0699999999999998</v>
@@ -2780,47 +2826,47 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B295">
-        <v>2.08</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B296">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B297">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B298">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B299">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="B300">
         <v>2.1</v>
@@ -2828,15 +2874,15 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B301">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B302">
         <v>2.08</v>
@@ -2844,55 +2890,55 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B303">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B304">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B305">
-        <v>2.0699999999999998</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B306">
-        <v>2.06</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B307">
-        <v>2.0499999999999998</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B308">
-        <v>2.04</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B309">
         <v>2.04</v>
@@ -2900,7 +2946,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B310">
         <v>2.04</v>
@@ -2908,7 +2954,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B311">
         <v>2.04</v>
@@ -2916,55 +2962,55 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B312">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B313">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B314">
-        <v>2.0299999999999998</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B315">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B316">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B317">
-        <v>2.04</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B318">
         <v>2.04</v>
@@ -2972,23 +3018,23 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B319">
-        <v>2.0299999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B320">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B321">
         <v>2.04</v>
@@ -2996,23 +3042,23 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B322">
-        <v>2.0299999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B323">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B324">
         <v>2.04</v>
@@ -3020,31 +3066,31 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B325">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>45343</v>
+        <v>45344</v>
       </c>
       <c r="B326">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B327">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="B328">
         <v>2.02</v>
@@ -3052,55 +3098,55 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="B329">
-        <v>2.0299999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B330">
-        <v>2.02</v>
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B331">
-        <v>2</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B332">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B333">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B334">
-        <v>2.0099999999999998</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B335">
         <v>2.0099999999999998</v>
@@ -3108,23 +3154,23 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>45329</v>
+        <v>45330</v>
       </c>
       <c r="B336">
-        <v>1.99</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B337">
-        <v>2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -3132,63 +3178,63 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B339">
-        <v>1.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B340">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B341">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B342">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>45320</v>
+        <v>45321</v>
       </c>
       <c r="B343">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B344">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>45316</v>
+        <v>45317</v>
       </c>
       <c r="B345">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B346">
         <v>1.94</v>
@@ -3196,7 +3242,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B347">
         <v>1.94</v>
@@ -3204,55 +3250,55 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B348">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B349">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B350">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B351">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>45307</v>
+        <v>45308</v>
       </c>
       <c r="B352">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B353">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B354">
         <v>1.91</v>
@@ -3260,15 +3306,15 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B355">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B356">
         <v>1.9</v>
@@ -3276,7 +3322,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B357">
         <v>1.9</v>
@@ -3284,15 +3330,15 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B358">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B359">
         <v>1.88</v>
@@ -3300,7 +3346,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B360">
         <v>1.88</v>
@@ -3308,55 +3354,55 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B361">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B362">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>45289</v>
+        <v>45293</v>
       </c>
       <c r="B363">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>45288</v>
+        <v>45289</v>
       </c>
       <c r="B364">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B365">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>45282</v>
+        <v>45287</v>
       </c>
       <c r="B366">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B367">
         <v>1.89</v>
@@ -3364,39 +3410,39 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B368">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B369">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>45278</v>
+        <v>45279</v>
       </c>
       <c r="B370">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="B371">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>45274</v>
+        <v>45275</v>
       </c>
       <c r="B372">
         <v>1.88</v>
@@ -3404,7 +3450,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B373">
         <v>1.88</v>
@@ -3412,39 +3458,39 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B374">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B375">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="B376">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="B377">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B378">
         <v>1.84</v>
@@ -3452,7 +3498,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B379">
         <v>1.84</v>
@@ -3460,7 +3506,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B380">
         <v>1.84</v>
@@ -3468,15 +3514,15 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B381">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B382">
         <v>1.83</v>
@@ -3484,23 +3530,23 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="B383">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="B384">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B385">
         <v>1.83</v>
@@ -3508,15 +3554,15 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B386">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="B387">
         <v>1.84</v>
@@ -3524,39 +3570,39 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="B388">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B389">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B390">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B391">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B392">
         <v>1.84</v>
@@ -3564,15 +3610,15 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B393">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="B394">
         <v>1.82</v>
@@ -3580,7 +3626,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B395">
         <v>1.82</v>
@@ -3588,23 +3634,23 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="B396">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B397">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="B398">
         <v>1.81</v>
@@ -3612,55 +3658,55 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B399">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="B400">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B401">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B402">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B403">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B404">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B405">
         <v>1.73</v>
@@ -3668,7 +3714,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B406">
         <v>1.73</v>
@@ -3676,31 +3722,31 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B407">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B408">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B409">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B410">
         <v>1.76</v>
@@ -3708,31 +3754,31 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B411">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B412">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B413">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B414">
         <v>1.82</v>
@@ -3740,39 +3786,39 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B415">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B416">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B417">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B418">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B419">
         <v>1.79</v>
@@ -3780,63 +3826,63 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B420">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B421">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B422">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B423">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="B424">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B425">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
-        <v>45198</v>
+        <v>45201</v>
       </c>
       <c r="B426">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B427">
         <v>1.77</v>
@@ -3844,55 +3890,55 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B428">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B429">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B430">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B431">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B432">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B433">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="1">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B434">
         <v>1.82</v>
@@ -3900,7 +3946,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="1">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B435">
         <v>1.82</v>
@@ -3908,23 +3954,23 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="1">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B436">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="1">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B437">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="1">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="B438">
         <v>1.81</v>
@@ -3932,23 +3978,23 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="1">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B439">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B440">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B441">
         <v>1.8</v>
@@ -3956,15 +4002,15 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="1">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="B442">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="1">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B443">
         <v>1.81</v>
@@ -3972,95 +4018,95 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="1">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B444">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="1">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B445">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="1">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B446">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="1">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B447">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="1">
-        <v>45168</v>
+        <v>45169</v>
       </c>
       <c r="B448">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="1">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="B449">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="1">
-        <v>45163</v>
+        <v>45167</v>
       </c>
       <c r="B450">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B451">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B452">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="1">
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="B453">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="1">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="B454">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="1">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="B455">
         <v>1.74</v>
@@ -4068,31 +4114,31 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B456">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="1">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B457">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="1">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B458">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="1">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B459">
         <v>1.78</v>
@@ -4100,7 +4146,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="1">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="B460">
         <v>1.78</v>
@@ -4108,23 +4154,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="1">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B461">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="1">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B462">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="1">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B463">
         <v>1.79</v>
@@ -4132,7 +4178,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="1">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B464">
         <v>1.79</v>
@@ -4140,31 +4186,31 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="1">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="B465">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="1">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B466">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="1">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B467">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="1">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B468">
         <v>1.82</v>
@@ -4172,55 +4218,55 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="1">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B469">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="1">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="B470">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="1">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B471">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="1">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B472">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="1">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B473">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="1">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B474">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="1">
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="B475">
         <v>1.79</v>
@@ -4228,31 +4274,31 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="1">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B476">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="1">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B477">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="1">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B478">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="1">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B479">
         <v>1.75</v>
@@ -4260,7 +4306,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="1">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B480">
         <v>1.75</v>
@@ -4268,15 +4314,15 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B481">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="1">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B482">
         <v>1.74</v>
@@ -4284,47 +4330,47 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="1">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B483">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="1">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B484">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="1">
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="B485">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="1">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B486">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="1">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B487">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="1">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B488">
         <v>1.78</v>
@@ -4332,7 +4378,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="1">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B489">
         <v>1.78</v>
@@ -4340,23 +4386,23 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="1">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B490">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="1">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B491">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="1">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B492">
         <v>1.75</v>
@@ -4364,47 +4410,47 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="1">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B493">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="1">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B494">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="1">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="B495">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="1">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B496">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="1">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B497">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="1">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B498">
         <v>1.75</v>
@@ -4412,7 +4458,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="1">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B499">
         <v>1.75</v>
@@ -4420,7 +4466,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="1">
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="B500">
         <v>1.75</v>
@@ -4428,7 +4474,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="1">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B501">
         <v>1.75</v>
@@ -4436,7 +4482,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="1">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B502">
         <v>1.75</v>
@@ -4444,7 +4490,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="1">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B503">
         <v>1.75</v>
@@ -4452,31 +4498,31 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="1">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B504">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="1">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="B505">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B506">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B507">
         <v>1.74</v>
@@ -4484,15 +4530,15 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="1">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B508">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="1">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B509">
         <v>1.75</v>
@@ -4500,31 +4546,31 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="1">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="B510">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="1">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B511">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="1">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B512">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B513">
         <v>1.72</v>
@@ -4532,15 +4578,15 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B514">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B515">
         <v>1.7</v>
@@ -4548,7 +4594,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="1">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B516">
         <v>1.7</v>
@@ -4556,23 +4602,23 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="1">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B517">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="1">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B518">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="1">
-        <v>45065</v>
+        <v>45068</v>
       </c>
       <c r="B519">
         <v>1.71</v>
@@ -4580,23 +4626,23 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="1">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B520">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="1">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B521">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="1">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B522">
         <v>1.67</v>
@@ -4604,7 +4650,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="1">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B523">
         <v>1.67</v>
@@ -4612,7 +4658,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="1">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B524">
         <v>1.67</v>
@@ -4620,15 +4666,15 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B525">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="1">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B526">
         <v>1.66</v>
@@ -4636,7 +4682,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="1">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B527">
         <v>1.66</v>
@@ -4644,71 +4690,71 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="1">
-        <v>45051</v>
+        <v>45055</v>
       </c>
       <c r="B528">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="1">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B529">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="1">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B530">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="1">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B531">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="1">
-        <v>45044</v>
+        <v>45048</v>
       </c>
       <c r="B532">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="1">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B533">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="1">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B534">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="1">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B535">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="1">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B536">
         <v>1.68</v>
@@ -4716,39 +4762,39 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="1">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B537">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="1">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B538">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="1">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B539">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B540">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="1">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B541">
         <v>1.69</v>
@@ -4756,55 +4802,55 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="1">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B542">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="1">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B543">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="1">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B544">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="1">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B545">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="1">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B546">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="1">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B547">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="1">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B548">
         <v>1.67</v>
@@ -4812,23 +4858,23 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="1">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B549">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="1">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B550">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B551">
         <v>1.66</v>
@@ -4836,95 +4882,95 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="1">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B552">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="1">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B553">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="1">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B554">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="1">
-        <v>45009</v>
+        <v>45012</v>
       </c>
       <c r="B555">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B556">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="1">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B557">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="1">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B558">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="1">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B559">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B560">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B561">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B562">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B563">
         <v>1.62</v>
@@ -4932,7 +4978,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B564">
         <v>1.62</v>
@@ -4940,31 +4986,31 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B565">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B566">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B567">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="1">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B568">
         <v>1.71</v>
@@ -4972,7 +5018,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="1">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B569">
         <v>1.71</v>
@@ -4980,23 +5026,23 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B570">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B571">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B572">
         <v>1.67</v>
@@ -5004,39 +5050,39 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="1">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B573">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="1">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B574">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="1">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B575">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="1">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B576">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="1">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B577">
         <v>1.69</v>
@@ -5044,55 +5090,55 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="1">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B578">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="1">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B579">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="1">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B580">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="1">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B581">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="1">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B582">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="1">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B583">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="1">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B584">
         <v>1.73</v>
@@ -5100,31 +5146,31 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="1">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B585">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="1">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B586">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="1">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B587">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="1">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B588">
         <v>1.75</v>
@@ -5132,47 +5178,47 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="1">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B589">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="1">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B590">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="1">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B591">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="1">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B592">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="1">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B593">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="1">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B594">
         <v>1.66</v>
@@ -5180,23 +5226,23 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="1">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B595">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="1">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B596">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="1">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B597">
         <v>1.65</v>
@@ -5204,31 +5250,31 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="1">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B598">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="1">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B599">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="1">
-        <v>44946</v>
+        <v>44949</v>
       </c>
       <c r="B600">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="1">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B601">
         <v>1.61</v>
@@ -5236,39 +5282,39 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="1">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B602">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="1">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B603">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="1">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B604">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="1">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="B605">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="1">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B606">
         <v>1.66</v>
@@ -5276,23 +5322,23 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="1">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B607">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="1">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B608">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="1">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B609">
         <v>1.63</v>
@@ -5300,7 +5346,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="1">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="B610">
         <v>1.63</v>
@@ -5308,7 +5354,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="1">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B611">
         <v>1.63</v>
@@ -5316,47 +5362,47 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="1">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B612">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="1">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B613">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="1">
-        <v>44925</v>
+        <v>44929</v>
       </c>
       <c r="B614">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="1">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B615">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="1">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B616">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="1">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="B617">
         <v>1.61</v>
@@ -5364,79 +5410,79 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="1">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B618">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="1">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B619">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="1">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B620">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="1">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B621">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="1">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="B622">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="1">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B623">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="1">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B624">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="1">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B625">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="1">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B626">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="1">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="B627">
         <v>1.64</v>
@@ -5444,7 +5490,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="1">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B628">
         <v>1.64</v>
@@ -5452,55 +5498,55 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="1">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B629">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="1">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B630">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="1">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B631">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="1">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="B632">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="1">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B633">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="1">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B634">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="1">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B635">
         <v>1.67</v>
@@ -5508,23 +5554,23 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="1">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B636">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="1">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="B637">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="1">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B638">
         <v>1.69</v>
@@ -5532,39 +5578,39 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="1">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B639">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="1">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B640">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="1">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B641">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="1">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="B642">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="1">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B643">
         <v>1.69</v>
@@ -5572,15 +5618,15 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="1">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B644">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="1">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B645">
         <v>1.7</v>
@@ -5588,87 +5634,87 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="1">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B646">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="1">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B647">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="1">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B648">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="1">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B649">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="1">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B650">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="1">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B651">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="1">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="B652">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="1">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B653">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="1">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B654">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="1">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B655">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="1">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B656">
         <v>1.71</v>
@@ -5676,23 +5722,23 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="1">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="B657">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="1">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B658">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="1">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B659">
         <v>1.68</v>
@@ -5700,31 +5746,31 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="1">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B660">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="1">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B661">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="1">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="B662">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="1">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B663">
         <v>1.67</v>
@@ -5732,55 +5778,55 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="1">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B664">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="1">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B665">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="1">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B666">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="1">
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="B667">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="1">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B668">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="1">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B669">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="1">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B670">
         <v>1.65</v>
@@ -5788,23 +5834,23 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="1">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B671">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="1">
-        <v>44841</v>
+        <v>44844</v>
       </c>
       <c r="B672">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="1">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B673">
         <v>1.7</v>
@@ -5812,47 +5858,47 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="1">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B674">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="1">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B675">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="1">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B676">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="1">
-        <v>44834</v>
+        <v>44837</v>
       </c>
       <c r="B677">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="1">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B678">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="1">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B679">
         <v>1.73</v>
@@ -5860,7 +5906,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="1">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B680">
         <v>1.73</v>
@@ -5868,7 +5914,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="1">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B681">
         <v>1.73</v>
@@ -5876,31 +5922,31 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="1">
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="B682">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="1">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B683">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="1">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B684">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="1">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B685">
         <v>1.73</v>
@@ -5908,7 +5954,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="1">
-        <v>44820</v>
+        <v>44824</v>
       </c>
       <c r="B686">
         <v>1.73</v>
@@ -5916,63 +5962,63 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="1">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B687">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="1">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B688">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="1">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B689">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="1">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B690">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="1">
-        <v>44813</v>
+        <v>44816</v>
       </c>
       <c r="B691">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="1">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B692">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="1">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B693">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="1">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B694">
         <v>1.73</v>
@@ -5980,7 +6026,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="1">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B695">
         <v>1.73</v>
@@ -5988,63 +6034,63 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="1">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B696">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="1">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B697">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="1">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B698">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="1">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B699">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="1">
-        <v>44799</v>
+        <v>44803</v>
       </c>
       <c r="B700">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="1">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B701">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="1">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B702">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="1">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B703">
         <v>1.79</v>
@@ -6052,103 +6098,103 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="1">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B704">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="1">
-        <v>44792</v>
+        <v>44795</v>
       </c>
       <c r="B705">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="1">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B706">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="1">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B707">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="1">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B708">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="1">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B709">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="1">
-        <v>44785</v>
+        <v>44788</v>
       </c>
       <c r="B710">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="1">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B711">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="1">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B712">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="1">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B713">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="1">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B714">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="1">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B715">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="1">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B716">
         <v>1.74</v>
@@ -6156,15 +6202,15 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="1">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B717">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="1">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B718">
         <v>1.71</v>
@@ -6172,47 +6218,47 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="1">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B719">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="1">
-        <v>44771</v>
+        <v>44774</v>
       </c>
       <c r="B720">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="1">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B721">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="1">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B722">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="1">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="B723">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="1">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="B724">
         <v>1.68</v>
@@ -6220,87 +6266,87 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="1">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B725">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="1">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B726">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="1">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B727">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="1">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B728">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="1">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B729">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="1">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B730">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="1">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B731">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="1">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B732">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="1">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B733">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="1">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B734">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="1">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B735">
         <v>1.66</v>
@@ -6308,71 +6354,71 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="1">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B736">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="1">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="B737">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="1">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="B738">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="1">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="B739">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="1">
-        <v>44743</v>
+        <v>44746</v>
       </c>
       <c r="B740">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="1">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B741">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="1">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B742">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="1">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="B743">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="1">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B744">
         <v>1.63</v>
@@ -6380,15 +6426,15 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="1">
-        <v>44736</v>
+        <v>44739</v>
       </c>
       <c r="B745">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="1">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B746">
         <v>1.58</v>
@@ -6396,15 +6442,15 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="1">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B747">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="1">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B748">
         <v>1.55</v>
@@ -6412,39 +6458,39 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="1">
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="B749">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="1">
-        <v>44729</v>
+        <v>44732</v>
       </c>
       <c r="B750">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="1">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="B751">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="1">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B752">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="1">
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="B753">
         <v>1.58</v>
@@ -6452,31 +6498,31 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="1">
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="B754">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="1">
-        <v>44722</v>
+        <v>44725</v>
       </c>
       <c r="B755">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="1">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="B756">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="1">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="B757">
         <v>1.69</v>
@@ -6484,55 +6530,55 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="1">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="B758">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="1">
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="B759">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="1">
-        <v>44713</v>
+        <v>44718</v>
       </c>
       <c r="B760">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="1">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="B761">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="1">
-        <v>44708</v>
+        <v>44712</v>
       </c>
       <c r="B762">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="1">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="B763">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="1">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="B764">
         <v>1.61</v>
@@ -6540,7 +6586,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="1">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="B765">
         <v>1.61</v>
@@ -6548,119 +6594,119 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="1">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="B766">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="1">
-        <v>44701</v>
+        <v>44704</v>
       </c>
       <c r="B767">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="1">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="B768">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="1">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="B769">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="1">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="B770">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="1">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B771">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="1">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="B772">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="1">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="B773">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="1">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B774">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="1">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B775">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="1">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B776">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="1">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="B777">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="1">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="B778">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="1">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="B779">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="1">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="B780">
         <v>1.7</v>
@@ -6668,15 +6714,15 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="1">
-        <v>44680</v>
+        <v>44684</v>
       </c>
       <c r="B781">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="1">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="B782">
         <v>1.73</v>
@@ -6684,39 +6730,39 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="1">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B783">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="1">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B784">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="1">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B785">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="1">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="B786">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="1">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B787">
         <v>1.74</v>
@@ -6724,55 +6770,55 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="1">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B788">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="1">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B789">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="1">
-        <v>44665</v>
+        <v>44670</v>
       </c>
       <c r="B790">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="1">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="B791">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="1">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="B792">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="1">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B793">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="1">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B794">
         <v>1.76</v>
@@ -6780,185 +6826,193 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="1">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="B795">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="1">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="B796">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="1">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="B797">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="1">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B798">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="1">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="B799">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="1">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B800">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="1">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B801">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="1">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B802">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="1">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B803">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="1">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B804">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="1">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B805">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="1">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B806">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="1">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B807">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="1">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B808">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="1">
-        <v>44638</v>
+        <v>44641</v>
       </c>
       <c r="B809">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="1">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B810">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="1">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B811">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="1">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B812">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="1">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B813">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="1">
-        <v>44631</v>
+        <v>44634</v>
       </c>
       <c r="B814">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="1">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B815">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="1">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B816">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B817">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" s="1">
         <v>44603</v>
       </c>
-      <c r="B817">
+      <c r="B818">
         <v>1.7</v>
       </c>
     </row>
